--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 57566-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 57566-2021.xlsx", "A 57566-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 57566-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 57566-2021.png", "A 57566-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 57566-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 57566-2021.docx", "A 57566-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 57566-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 57566-2021.docx", "A 57566-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 57566-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 57566-2021.docx", "A 57566-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 57566-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 57566-2021.docx", "A 57566-2021")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,27 +717,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 7823-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 7823-2022.xlsx", "A 7823-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 7823-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 7823-2022.png", "A 7823-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 7823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 7823-2022.docx", "A 7823-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 7823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 7823-2022.docx", "A 7823-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 7823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 7823-2022.docx", "A 7823-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 7823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 7823-2022.docx", "A 7823-2022")</f>
         <v/>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,27 +802,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 70948-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 70948-2018.xlsx", "A 70948-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 70948-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 70948-2018.png", "A 70948-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 70948-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 70948-2018.docx", "A 70948-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 70948-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 70948-2018.docx", "A 70948-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 70948-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 70948-2018.docx", "A 70948-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 70948-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 70948-2018.docx", "A 70948-2018")</f>
         <v/>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,27 +892,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 22978-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 22978-2019.xlsx", "A 22978-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 22978-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 22978-2019.png", "A 22978-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 22978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 22978-2019.docx", "A 22978-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 22978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 22978-2019.docx", "A 22978-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 22978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 22978-2019.docx", "A 22978-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 22978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 22978-2019.docx", "A 22978-2019")</f>
         <v/>
       </c>
     </row>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,27 +977,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 45168-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 45168-2021.xlsx", "A 45168-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 45168-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 45168-2021.png", "A 45168-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 45168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 45168-2021.docx", "A 45168-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 45168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 45168-2021.docx", "A 45168-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 45168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 45168-2021.docx", "A 45168-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 45168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 45168-2021.docx", "A 45168-2021")</f>
         <v/>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,27 +1067,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 8266-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 8266-2022.xlsx", "A 8266-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 8266-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 8266-2022.png", "A 8266-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 8266-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 8266-2022.docx", "A 8266-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 8266-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 8266-2022.docx", "A 8266-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 8266-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 8266-2022.docx", "A 8266-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 8266-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 8266-2022.docx", "A 8266-2022")</f>
         <v/>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,27 +1152,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 1591-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 1591-2023.xlsx", "A 1591-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 1591-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 1591-2023.png", "A 1591-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 1591-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 1591-2023.docx", "A 1591-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 1591-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 1591-2023.docx", "A 1591-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 1591-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 1591-2023.docx", "A 1591-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 1591-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 1591-2023.docx", "A 1591-2023")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1237,27 +1237,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 6160-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 6160-2023.xlsx", "A 6160-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 6160-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 6160-2023.png", "A 6160-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 6160-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 6160-2023.docx", "A 6160-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 6160-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 6160-2023.docx", "A 6160-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 6160-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 6160-2023.docx", "A 6160-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 6160-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 6160-2023.docx", "A 6160-2023")</f>
         <v/>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1322,27 +1322,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 9985-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/artfynd/A 9985-2023.xlsx", "A 9985-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 9985-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/kartor/A 9985-2023.png", "A 9985-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 9985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomål/A 9985-2023.docx", "A 9985-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 9985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/klagomålsmail/A 9985-2023.docx", "A 9985-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 9985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsyn/A 9985-2023.docx", "A 9985-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 9985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TOREBODA/tillsynsmail/A 9985-2023.docx", "A 9985-2023")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt TÖREBODA.xlsx
+++ b/Översikt TÖREBODA.xlsx
@@ -572,7 +572,7 @@
         <v>44484</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>43452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>43591</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44439</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>44610</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44937</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44985</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43321</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43353</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43395</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43395</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43398</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>43426</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>43474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43476</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>43476</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43486</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43488</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43504</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43536</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43536</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43567</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43595</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43635</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43650</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43731</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43742</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43753</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43856</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43866</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43868</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>43870</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43873</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43873</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>43882</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43885</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43886</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43893</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43913</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43924</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43924</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43964</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44000</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44006</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>44048</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>44061</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>44083</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44083</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44112</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44112</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44112</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44137</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44137</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44137</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44137</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>44137</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44139</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>44148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44152</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>44155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44159</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44171</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>44175</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44192</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44207</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44221</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44223</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44230</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44263</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44266</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44308</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44328</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44343</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44347</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44379</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44390</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44418</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44425</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44426</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>44433</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44458</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44473</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44494</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44503</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44503</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44507</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44508</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44508</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44509</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44509</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44509</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>44532</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>44532</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>44565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>44565</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>44566</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44579</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44599</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>44614</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44614</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44614</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44614</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44616</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44697</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44713</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44726</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44746</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44746</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44746</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44792</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44798</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44805</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44816</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44818</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44827</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44827</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44827</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44842</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44847</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44847</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44853</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44879</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44890</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44894</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44900</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44900</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44900</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44903</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44904</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44908</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44923</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44937</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44951</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44951</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44960</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44970</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44972</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44978</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44978</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44978</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44986</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44987</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45012</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45012</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45029</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45030</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45049</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45051</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45051</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45077</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45077</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45085</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45089</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>45090</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>45096</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45096</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45096</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45099</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
